--- a/data/trans_dic/IP09B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,81; 100,0</t>
+          <t>65,69; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,35; 83,4</t>
+          <t>34,1; 83,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,28; 100,0</t>
+          <t>60,56; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,48; 91,67</t>
+          <t>37,95; 92,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 74,26</t>
+          <t>29,68; 78,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,29; 87,86</t>
+          <t>13,16; 87,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 100,0</t>
+          <t>31,47; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,12; 92,44</t>
+          <t>58,77; 89,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,37; 73,96</t>
+          <t>39,4; 71,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 73,04</t>
+          <t>14,03; 73,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,64; 95,0</t>
+          <t>61,33; 95,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,79; 86,21</t>
+          <t>68,71; 86,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,49; 72,74</t>
+          <t>51,79; 72,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,39; 70,97</t>
+          <t>45,46; 71,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,7; 82,47</t>
+          <t>59,18; 81,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,49; 88,96</t>
+          <t>63,25; 88,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,02; 72,02</t>
+          <t>50,0; 71,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,63; 61,37</t>
+          <t>34,34; 62,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,66; 91,85</t>
+          <t>71,27; 92,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,82; 85,5</t>
+          <t>69,41; 84,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,53; 69,08</t>
+          <t>54,02; 68,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,98; 63,1</t>
+          <t>43,62; 63,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,14; 83,47</t>
+          <t>67,62; 83,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,15; 96,63</t>
+          <t>74,62; 96,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,16; 81,83</t>
+          <t>45,7; 82,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,21; 73,26</t>
+          <t>25,92; 72,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,35; 83,48</t>
+          <t>47,27; 82,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,16; 78,29</t>
+          <t>39,55; 78,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 87,37</t>
+          <t>50,98; 91,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,7; 82,06</t>
+          <t>34,82; 80,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,68; 88,46</t>
+          <t>53,41; 89,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,93; 86,07</t>
+          <t>62,12; 85,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,19; 80,56</t>
+          <t>54,72; 81,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,65; 72,51</t>
+          <t>39,4; 72,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,96; 80,69</t>
+          <t>55,65; 80,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,36; 87,96</t>
+          <t>73,9; 88,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,32; 70,86</t>
+          <t>54,65; 70,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,06; 66,11</t>
+          <t>44,25; 65,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,41; 80,24</t>
+          <t>61,88; 80,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,88; 79,74</t>
+          <t>60,24; 80,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,08; 70,67</t>
+          <t>52,31; 70,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,44; 63,5</t>
+          <t>40,2; 63,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,28; 87,36</t>
+          <t>69,34; 87,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 83,15</t>
+          <t>71,75; 83,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,77; 68,45</t>
+          <t>56,67; 68,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,02; 61,92</t>
+          <t>45,05; 61,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>69,06; 81,3</t>
+          <t>68,69; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta para realizar actividades como pasear, hacer deporte,... dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades como pasear, ir al cine, hacer deporte, etc</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>66,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52,59%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55,85%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>83,67%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>86,46%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>60,57%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>23,23%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>87,79%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>66,84%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>52,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>55,85%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,39%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>85,82%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,69; 100,0</t>
+          <t>30,73; 91,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,1; 83,4</t>
+          <t>30,87; 73,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,83</t>
+          <t>14,27; 87,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,56; 100,0</t>
+          <t>33,36; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,95; 92,05</t>
+          <t>58,34; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,68; 78,05</t>
+          <t>34,89; 84,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 87,52</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,47; 100,0</t>
+          <t>62,01; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,77; 89,73</t>
+          <t>60,27; 89,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,4; 71,63</t>
+          <t>40,31; 71,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,03; 73,44</t>
+          <t>15,37; 72,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,33; 95,48</t>
+          <t>65,78; 97,52</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>77,5%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47,8%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>83,75%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>78,45%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>62,56%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>58,47%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>71,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>77,5%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>61,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>47,8%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>77,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,71; 86,85</t>
+          <t>64,01; 88,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,79; 72,62</t>
+          <t>49,71; 72,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,46; 71,38</t>
+          <t>32,06; 62,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,18; 81,17</t>
+          <t>71,36; 91,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,25; 88,11</t>
+          <t>68,34; 86,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,0; 71,98</t>
+          <t>53,09; 71,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,34; 62,47</t>
+          <t>45,18; 70,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,27; 92,1</t>
+          <t>62,97; 85,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,41; 84,7</t>
+          <t>70,9; 85,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,02; 68,6</t>
+          <t>54,38; 68,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,62; 63,16</t>
+          <t>44,63; 63,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 83,43</t>
+          <t>69,54; 85,52</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>60,98%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>73,28%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59,09%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>89,33%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>66,55%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>51,81%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>67,64%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,98%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>73,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>59,09%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>69,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>71,19%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,62; 96,6</t>
+          <t>41,08; 79,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,7; 82,12</t>
+          <t>50,78; 87,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 72,87</t>
+          <t>33,55; 80,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,27; 82,97</t>
+          <t>51,95; 88,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,55; 78,85</t>
+          <t>72,12; 96,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,98; 91,16</t>
+          <t>45,54; 84,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,82; 80,32</t>
+          <t>30,32; 78,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,41; 89,37</t>
+          <t>50,02; 83,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,12; 85,95</t>
+          <t>62,32; 86,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,72; 81,75</t>
+          <t>56,03; 82,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,4; 72,14</t>
+          <t>38,57; 71,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,65; 80,87</t>
+          <t>58,13; 82,56</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>81,98%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>63,09%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>55,26%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>72,05%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>70,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>62,34%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>51,34%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>76,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,9; 88,28</t>
+          <t>59,04; 79,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,65; 70,96</t>
+          <t>52,97; 70,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,25; 65,7</t>
+          <t>39,66; 62,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,88; 80,32</t>
+          <t>70,22; 88,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,24; 80,3</t>
+          <t>74,61; 87,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,31; 70,35</t>
+          <t>55,32; 70,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,2; 63,4</t>
+          <t>43,35; 66,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,34; 87,56</t>
+          <t>66,16; 83,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,75; 83,11</t>
+          <t>71,76; 83,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,67; 68,3</t>
+          <t>56,39; 68,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,05; 61,91</t>
+          <t>45,34; 61,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,69; 80,87</t>
+          <t>70,55; 83,15</t>
         </is>
       </c>
     </row>
